--- a/TPS Reports.xlsx
+++ b/TPS Reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\GitHub\quadratic-solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -86,13 +86,16 @@
     <t>Nate</t>
   </si>
   <si>
-    <t>Nate, Xavier, Ali</t>
-  </si>
-  <si>
     <t>5 min</t>
   </si>
   <si>
     <t>1 hr</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>20 min</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -599,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -608,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -620,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -629,7 +632,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -653,13 +656,21 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">

--- a/TPS Reports.xlsx
+++ b/TPS Reports.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\GitHub\quadratic-solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali-i\Dropbox\University\Western Michigan University\Courses\Spring 2018\CS 4900 - Soft Sys Dev I\Assignmnets\Quad Solver\quadratic-solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -477,22 +477,22 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -528,20 +528,26 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -554,7 +560,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -567,20 +573,26 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -597,7 +609,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -618,7 +630,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -639,7 +651,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -652,7 +664,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -673,7 +685,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -682,7 +694,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -691,7 +703,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -700,7 +712,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -709,7 +721,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -718,7 +730,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -727,7 +739,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -736,7 +748,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -745,7 +757,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>

--- a/TPS Reports.xlsx
+++ b/TPS Reports.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali-i\Dropbox\University\Western Michigan University\Courses\Spring 2018\CS 4900 - Soft Sys Dev I\Assignmnets\Quad Solver\quadratic-solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nate\Documents\GitHub\quadratic-solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>20 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +608,12 @@
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
